--- a/dataset/paso_tag_ref.xlsx
+++ b/dataset/paso_tag_ref.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\Esperanza\EsperanzaCurves\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\ElPaso\ElPasoCurves\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA72CA-7850-4431-AF2A-1140862EE34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E136D-F3DF-446D-BD65-B35ED71ED545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E989F6D-A17C-4462-AB52-36424982D7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="tags_disp" sheetId="2" r:id="rId1"/>
-    <sheet name="fase1" sheetId="9" r:id="rId2"/>
+    <sheet name="temp_gab" sheetId="9" r:id="rId2"/>
     <sheet name="fase2" sheetId="10" r:id="rId3"/>
     <sheet name="fase3" sheetId="11" r:id="rId4"/>
     <sheet name="pot_dc" sheetId="8" r:id="rId5"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="217">
   <si>
     <t>Nombre tag</t>
   </si>
@@ -87,12 +87,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>potencia_espza.pk</t>
-  </si>
-  <si>
-    <t>irradiancia_espza.pk</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSA01.MMXU1.TotW.mag.f.Value</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>PASEPZA.MB0404.MQA00.BR001.MMET1.TiltInsol.mag.f.Value</t>
   </si>
   <si>
-    <t>temp_cpu</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSE01.DINV1.CpuTmp.mag.f.Value</t>
   </si>
   <si>
@@ -252,12 +243,6 @@
     <t>PASEPZA.MB0404.MSE06.DINV1.CpuTmp.mag.f.Value</t>
   </si>
   <si>
-    <t>temp_igbt</t>
-  </si>
-  <si>
-    <t>espza_temp_igbt.pk</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSE01.DINV1.HeatSinkTmp.mag.f.Value</t>
   </si>
   <si>
@@ -330,24 +315,6 @@
     <t>PASEPZA.MB0404.MSE06.DINV1.HeatSinkTmp.mag.f.Value</t>
   </si>
   <si>
-    <t>espza_temp_cpu.pk</t>
-  </si>
-  <si>
-    <t>Temp.Control Board</t>
-  </si>
-  <si>
-    <t>Temp. IGBT</t>
-  </si>
-  <si>
-    <t>Cosfi</t>
-  </si>
-  <si>
-    <t>cosfi</t>
-  </si>
-  <si>
-    <t>espza_cosfi.pk</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSE01.DINV1.TotPF.mag.f.Value</t>
   </si>
   <si>
@@ -420,15 +387,6 @@
     <t>PASEPZA.MB0404.MSE06.DINV1.TotPF.mag.f.Value</t>
   </si>
   <si>
-    <t>Pot. Reactiva</t>
-  </si>
-  <si>
-    <t>reactiva</t>
-  </si>
-  <si>
-    <t>espza_reactiva.pk</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSA01.MMXU1.TotVAr.mag.f.Value</t>
   </si>
   <si>
@@ -504,15 +462,6 @@
     <t>tags</t>
   </si>
   <si>
-    <t>Pot. DC</t>
-  </si>
-  <si>
-    <t>pot_dc</t>
-  </si>
-  <si>
-    <t>espza_pot_dc.pk</t>
-  </si>
-  <si>
     <t>PASEPZA.MA0101.MSE01.DINV1.Watt.mag.f.Value</t>
   </si>
   <si>
@@ -585,47 +534,176 @@
     <t>PASEPZA.MB0404.MSE06.DINV1.Watt.mag.f.Value</t>
   </si>
   <si>
-    <t>Vol. Fase U12</t>
-  </si>
-  <si>
-    <t>Vol. Fase U23</t>
-  </si>
-  <si>
-    <t>Vol. Fase U31</t>
-  </si>
-  <si>
-    <t>espza_fase1.pk</t>
-  </si>
-  <si>
-    <t>espza_fase2.pk</t>
-  </si>
-  <si>
-    <t>espza_fase3.pk</t>
-  </si>
-  <si>
-    <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UAB.Value</t>
-  </si>
-  <si>
     <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UCA.Value</t>
   </si>
   <si>
     <t>PASEPZA.2.PASEPZA.ESPERANZA.FEEDERS_BREAKER_002.BREAKER.VOLTAGE_UBC.Value</t>
   </si>
   <si>
-    <t>fase1</t>
-  </si>
-  <si>
-    <t>fase2</t>
-  </si>
-  <si>
-    <t>fase3</t>
+    <t>potencia_paso.pk</t>
+  </si>
+  <si>
+    <t>irradiancia_paso.pk</t>
+  </si>
+  <si>
+    <t>Temp. Gabinete</t>
+  </si>
+  <si>
+    <t>temp_gab</t>
+  </si>
+  <si>
+    <t>paso_temp_gab.pk</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0102.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0102.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0102.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0102.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0101.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0101.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0101.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0101.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0103.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0103.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0103.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0103.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0104.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0104.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0104.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0104.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0105.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0105.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0105.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0105.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0106.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0106.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0106.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0106.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0107.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0107.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0107.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0107.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0108.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0108.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0108.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0108.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0109.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0109.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0109.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0109.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0110.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0110.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0110.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0110.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0111.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0111.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0111.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0111.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0112.MSE01.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0112.MSE02.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0112.MSE03.BT001/DINV1.EnclTmp.mag.f</t>
+  </si>
+  <si>
+    <t>COSCOEP.MA0112.MSE04.BT001/DINV1.EnclTmp.mag.f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +713,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,9 +760,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87DD3D3-B63A-4D83-A9F6-55A1B50A1602}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,95 +1119,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1276,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1304,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1388,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1396,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1404,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1444,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1460,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1468,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1476,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1484,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +1504,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1524,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1532,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1540,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1548,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1558,15 +1570,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1CCFA5-375F-4BBF-BC65-BD428F1FC770}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AW51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1574,197 +1584,488 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="B25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1794,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1802,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1810,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1818,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1826,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1834,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1842,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1850,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1858,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1874,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1882,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1890,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1898,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1906,7 +2207,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1914,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1922,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1930,7 +2231,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1954,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1962,7 +2263,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1970,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1978,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1990,11 +2291,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EEFAA-CF83-4BD1-A549-12AD18C3E778}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="74.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2009,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2017,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2033,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2041,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2065,7 +2369,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2089,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2097,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2113,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2121,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2129,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2137,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2145,7 +2449,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2153,7 +2457,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2161,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2169,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2177,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2185,7 +2489,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2193,7 +2497,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2232,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2240,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2248,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2256,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2264,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2272,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2280,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2288,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2296,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2304,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2312,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2320,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2328,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2336,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2344,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2656,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2368,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2376,7 +2680,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2384,7 +2688,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2696,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2704,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2712,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2439,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2447,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2455,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2463,7 +2767,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2471,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2479,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2487,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2495,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2503,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2511,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2519,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2527,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2535,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2543,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2551,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2559,7 +2863,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2567,7 +2871,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2575,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2583,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2591,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2599,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2607,7 +2911,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2615,7 +2919,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2623,7 +2927,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2662,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2670,7 +2974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2678,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2686,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2694,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2702,7 +3006,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2710,7 +3014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2718,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2726,7 +3030,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2734,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2742,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2750,7 +3054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2758,7 +3062,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2766,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2774,7 +3078,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2782,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2790,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2798,7 +3102,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2806,7 +3110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2814,7 +3118,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2822,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2830,7 +3134,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2838,7 +3142,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2877,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2885,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2893,7 +3197,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2973,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2989,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2997,7 +3301,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3005,7 +3309,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3333,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,7 +3341,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3045,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3412,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
